--- a/TestCases/TestCase1.xlsx
+++ b/TestCases/TestCase1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Betty\Desktop\BettApp\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajay\Desktop\artify1\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10A0C13-142C-4147-BEA7-E17B2BA88DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25150FFC-0F12-47E9-9BF4-C178C0D2CC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 1.2" sheetId="4" r:id="rId1"/>
-    <sheet name="Version 1.0" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Version 2.0" sheetId="5" r:id="rId1"/>
+    <sheet name="Version 1.2" sheetId="4" r:id="rId2"/>
+    <sheet name="Version 1.0" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>Sl No</t>
   </si>
@@ -259,10 +260,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,11 +544,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C280B-A7E1-425F-A183-BBB34C87D0BA}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{5767AA34-F400-496C-9296-EDB26FCB17E3}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48590A36-AFE3-4BF5-A14F-89F69B66E9D1}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,42 +692,42 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -672,66 +738,66 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -742,16 +808,16 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -760,48 +826,48 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -812,60 +878,60 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>5</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -876,64 +942,64 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -945,39 +1011,39 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
     <mergeCell ref="G17:G20"/>
     <mergeCell ref="H17:H20"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="H7:H10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="H12:H15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H26:H1048576 H11:H12 H16:H17 H21:H22 H1:H4 H6:H7" xr:uid="{FAD604A9-493C-45A3-9272-BAA939178747}">
@@ -988,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46CF0A-594F-41E0-9C09-BBA1F178334E}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -1072,10 +1138,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1089,8 +1155,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="E5" t="s">
         <v>19</v>
       </c>
@@ -1116,16 +1182,16 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
@@ -1134,45 +1200,45 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -1183,16 +1249,16 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="s">
@@ -1201,48 +1267,48 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -1253,60 +1319,60 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>5</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -1317,66 +1383,66 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>6</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -1388,18 +1454,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G7:G10"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
@@ -1412,9 +1466,21 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="G7:G10"/>
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H7 H11:H12 H16:H17 H21:H22 H26:H1048576" xr:uid="{508460ED-BAA0-4798-9B0E-D813448AAC23}">
@@ -1425,7 +1491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1BFCC4-A261-44D1-A86F-C4F7A15F11E4}">
   <dimension ref="A1"/>
   <sheetViews>
